--- a/realme/May/All Details/03.05.2021/realme Bank Statement May-2021.xlsx
+++ b/realme/May/All Details/03.05.2021/realme Bank Statement May-2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\May\All Details\02.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\May\All Details\03.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="May 2021" sheetId="7" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -269,7 +269,10 @@
     <t>02.05.2021</t>
   </si>
   <si>
-    <t>Date: 02.05.2021</t>
+    <t>03.05.2021</t>
+  </si>
+  <si>
+    <t>Date: 03.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1551,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2231,6 +2234,9 @@
     </xf>
     <xf numFmtId="10" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2940,7 +2946,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2961,21 +2967,21 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="239" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="20" t="s">
@@ -3074,12 +3080,18 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="26">
+        <v>930000</v>
+      </c>
+      <c r="D10" s="237">
+        <v>924500</v>
+      </c>
       <c r="E10" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="1"/>
@@ -3092,7 +3104,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="1"/>
@@ -3105,7 +3117,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="27"/>
@@ -3118,7 +3130,7 @@
       <c r="D13" s="23"/>
       <c r="E13" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="1"/>
@@ -3131,7 +3143,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1"/>
@@ -3144,7 +3156,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="1"/>
@@ -3157,7 +3169,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="17"/>
@@ -3170,7 +3182,7 @@
       <c r="D17" s="23"/>
       <c r="E17" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="9"/>
@@ -3183,7 +3195,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="25">
         <f>E17+C18-D18</f>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="9"/>
@@ -3199,7 +3211,7 @@
       <c r="D19" s="23"/>
       <c r="E19" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="27"/>
@@ -3212,7 +3224,7 @@
       <c r="D20" s="23"/>
       <c r="E20" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="27"/>
@@ -3225,7 +3237,7 @@
       <c r="D21" s="23"/>
       <c r="E21" s="25">
         <f>E20+C21-D21</f>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="8"/>
@@ -3238,7 +3250,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="1"/>
@@ -3251,7 +3263,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="25">
         <f>E22+C23-D23</f>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="1"/>
@@ -3264,7 +3276,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="1"/>
@@ -3277,7 +3289,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="1"/>
@@ -3290,7 +3302,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="1"/>
@@ -3303,7 +3315,7 @@
       <c r="D27" s="23"/>
       <c r="E27" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="1"/>
@@ -3316,7 +3328,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="1"/>
@@ -3329,7 +3341,7 @@
       <c r="D29" s="23"/>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="1"/>
@@ -3342,7 +3354,7 @@
       <c r="D30" s="23"/>
       <c r="E30" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="1"/>
@@ -3355,7 +3367,7 @@
       <c r="D31" s="23"/>
       <c r="E31" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="1"/>
@@ -3368,7 +3380,7 @@
       <c r="D32" s="23"/>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="1"/>
@@ -3381,7 +3393,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="1"/>
@@ -3394,7 +3406,7 @@
       <c r="D34" s="23"/>
       <c r="E34" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="1"/>
@@ -3407,7 +3419,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="1"/>
@@ -3420,7 +3432,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="1"/>
@@ -3433,7 +3445,7 @@
       <c r="D37" s="23"/>
       <c r="E37" s="25">
         <f t="shared" si="0"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="1"/>
@@ -3446,7 +3458,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="25">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="1"/>
@@ -3459,7 +3471,7 @@
       <c r="D39" s="23"/>
       <c r="E39" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="1"/>
@@ -3472,7 +3484,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="1"/>
@@ -3485,7 +3497,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="1"/>
@@ -3498,7 +3510,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="1"/>
@@ -3511,7 +3523,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="1"/>
@@ -3524,7 +3536,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="1"/>
@@ -3537,7 +3549,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="1"/>
@@ -3550,7 +3562,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="1"/>
@@ -3563,7 +3575,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="1"/>
@@ -3576,7 +3588,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="1"/>
@@ -3588,7 +3600,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="1"/>
@@ -3600,7 +3612,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="1"/>
@@ -3612,7 +3624,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="1"/>
@@ -3624,7 +3636,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="1"/>
@@ -3636,7 +3648,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="1"/>
@@ -3648,7 +3660,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="1"/>
@@ -3660,7 +3672,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="1"/>
@@ -3671,7 +3683,7 @@
       <c r="D56" s="23"/>
       <c r="E56" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="1"/>
@@ -3682,7 +3694,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="1"/>
@@ -3693,7 +3705,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="1"/>
@@ -3704,7 +3716,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="1"/>
@@ -3715,7 +3727,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="1"/>
@@ -3726,7 +3738,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="1"/>
@@ -3737,7 +3749,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="1"/>
@@ -3748,7 +3760,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="1"/>
@@ -3759,7 +3771,7 @@
       <c r="D64" s="23"/>
       <c r="E64" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="1"/>
@@ -3770,7 +3782,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="1"/>
@@ -3781,7 +3793,7 @@
       <c r="D66" s="23"/>
       <c r="E66" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="1"/>
@@ -3792,7 +3804,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="1"/>
@@ -3803,7 +3815,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="1"/>
@@ -3814,7 +3826,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="25">
         <f t="shared" si="1"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="1"/>
@@ -3825,7 +3837,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="1"/>
@@ -3836,7 +3848,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="1"/>
@@ -3847,7 +3859,7 @@
       <c r="D72" s="23"/>
       <c r="E72" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="1"/>
@@ -3858,7 +3870,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="1"/>
@@ -3869,7 +3881,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="1"/>
@@ -3880,7 +3892,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="1"/>
@@ -3891,7 +3903,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -3902,7 +3914,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="1"/>
@@ -3913,7 +3925,7 @@
       <c r="D78" s="23"/>
       <c r="E78" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="1"/>
@@ -3924,7 +3936,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="1"/>
@@ -3935,7 +3947,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="1"/>
@@ -3946,7 +3958,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="1"/>
@@ -3957,7 +3969,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="25">
         <f t="shared" si="2"/>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="1"/>
@@ -3966,15 +3978,15 @@
       <c r="B83" s="29"/>
       <c r="C83" s="25">
         <f>SUM(C5:C72)</f>
-        <v>1733291</v>
+        <v>2663291</v>
       </c>
       <c r="D83" s="25">
         <f>SUM(D5:D77)</f>
-        <v>1722010</v>
+        <v>2646510</v>
       </c>
       <c r="E83" s="39">
         <f>E71</f>
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="1"/>
@@ -4000,7 +4012,7 @@
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="13" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
@@ -4015,73 +4027,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="240"/>
     </row>
     <row r="2" spans="1:26" s="138" customFormat="1" ht="18">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="241"/>
     </row>
     <row r="3" spans="1:26" s="139" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="244"/>
       <c r="U3" s="59"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4090,58 +4102,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="141" customFormat="1">
-      <c r="A4" s="244" t="s">
+      <c r="A4" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="248" t="s">
+      <c r="D4" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="249" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="248" t="s">
+      <c r="J4" s="249" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="249" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="248" t="s">
+      <c r="L4" s="249" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="248" t="s">
+      <c r="M4" s="249" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="248" t="s">
+      <c r="N4" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="254" t="s">
+      <c r="O4" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="252" t="s">
+      <c r="Q4" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="250" t="s">
+      <c r="R4" s="251" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="140" t="s">
@@ -4154,24 +4166,24 @@
       <c r="Y4" s="143"/>
     </row>
     <row r="5" spans="1:26" s="141" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="245"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="251"/>
+      <c r="A5" s="246"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="252"/>
       <c r="S5" s="145" t="s">
         <v>49</v>
       </c>
@@ -4263,27 +4275,37 @@
       <c r="Y7" s="30"/>
     </row>
     <row r="8" spans="1:26" s="10" customFormat="1">
-      <c r="A8" s="149"/>
+      <c r="A8" s="149" t="s">
+        <v>67</v>
+      </c>
       <c r="B8" s="157"/>
       <c r="C8" s="150"/>
       <c r="D8" s="158"/>
       <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
+      <c r="F8" s="158">
+        <v>50</v>
+      </c>
       <c r="G8" s="158"/>
       <c r="H8" s="158"/>
       <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="158"/>
+      <c r="J8" s="159">
+        <v>240</v>
+      </c>
+      <c r="K8" s="158">
+        <v>160</v>
+      </c>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
-      <c r="N8" s="191"/>
+      <c r="N8" s="191">
+        <v>10</v>
+      </c>
       <c r="O8" s="19"/>
       <c r="P8" s="158"/>
       <c r="Q8" s="158"/>
       <c r="R8" s="160"/>
       <c r="S8" s="154">
         <f>SUM(B8:R8)</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="T8" s="155"/>
       <c r="U8" s="7"/>
@@ -5095,7 +5117,7 @@
       </c>
       <c r="F37" s="176">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G37" s="176">
         <f>SUM(G6:G36)</f>
@@ -5111,11 +5133,11 @@
       </c>
       <c r="J37" s="176">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="K37" s="176">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="L37" s="176">
         <f t="shared" si="1"/>
@@ -5127,7 +5149,7 @@
       </c>
       <c r="N37" s="194">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="O37" s="176">
         <f t="shared" si="1"/>
@@ -5147,7 +5169,7 @@
       </c>
       <c r="S37" s="178">
         <f>SUM(S6:S36)</f>
-        <v>1980</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7185,7 +7207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -7212,14 +7234,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
       <c r="L1" s="49"/>
       <c r="M1" s="196"/>
       <c r="N1" s="196"/>
@@ -7272,14 +7294,14 @@
       <c r="BI1" s="196"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
       <c r="L2" s="49"/>
       <c r="M2" s="196"/>
       <c r="N2" s="196"/>
@@ -7332,14 +7354,14 @@
       <c r="BI2" s="196"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
       <c r="K3" s="196"/>
       <c r="L3" s="49"/>
       <c r="M3" s="196"/>
@@ -9513,12 +9535,12 @@
       <c r="BI34" s="196"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="267" t="s">
+      <c r="A35" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="268"/>
-      <c r="C35" s="268"/>
-      <c r="D35" s="269"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="270"/>
       <c r="E35" s="59"/>
       <c r="F35" s="54"/>
       <c r="G35" s="71"/>
@@ -10034,13 +10056,13 @@
       <c r="C43" s="54"/>
       <c r="D43" s="80"/>
       <c r="E43" s="59"/>
-      <c r="F43" s="270" t="s">
+      <c r="F43" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="270"/>
-      <c r="H43" s="270"/>
-      <c r="I43" s="270"/>
-      <c r="J43" s="270"/>
+      <c r="G43" s="271"/>
+      <c r="H43" s="271"/>
+      <c r="I43" s="271"/>
+      <c r="J43" s="271"/>
       <c r="K43" s="87"/>
       <c r="L43" s="51"/>
       <c r="M43" s="196"/>
@@ -11230,10 +11252,10 @@
       <c r="C62" s="92"/>
       <c r="D62" s="99"/>
       <c r="E62" s="64"/>
-      <c r="F62" s="258" t="s">
+      <c r="F62" s="259" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="258"/>
+      <c r="G62" s="259"/>
       <c r="H62" s="195"/>
       <c r="I62" s="195"/>
       <c r="J62" s="100" t="s">
@@ -14575,10 +14597,10 @@
       <c r="BI112" s="196"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="259" t="s">
+      <c r="A113" s="260" t="s">
         <v>32</v>
       </c>
-      <c r="B113" s="260"/>
+      <c r="B113" s="261"/>
       <c r="C113" s="115">
         <f>SUM(C37:C112)</f>
         <v>0</v>
@@ -14710,10 +14732,10 @@
       <c r="BI114" s="196"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="261" t="s">
+      <c r="A115" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="262"/>
+      <c r="B115" s="263"/>
       <c r="C115" s="120">
         <f>C113+L136</f>
         <v>0</v>
@@ -16632,8 +16654,8 @@
       <c r="N169" s="199"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="263"/>
-      <c r="G170" s="263"/>
+      <c r="F170" s="264"/>
+      <c r="G170" s="264"/>
       <c r="H170" s="196"/>
       <c r="I170" s="62"/>
       <c r="J170" s="49"/>
@@ -17291,8 +17313,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17312,35 +17334,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="272" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="273"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="274"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="282"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="283"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="274" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="276"/>
+      <c r="A3" s="275" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="277"/>
       <c r="F3" s="5"/>
       <c r="G3" s="12"/>
       <c r="H3" s="1"/>
@@ -17409,7 +17431,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43">
-        <v>7166500</v>
+        <v>6842760</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="34"/>
@@ -17441,14 +17463,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="42">
-        <v>22880</v>
+        <v>31140</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="232" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="43">
-        <v>11281</v>
+        <v>16781</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="34"/>
@@ -17483,7 +17505,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="43">
-        <v>1024389</v>
+        <v>425929</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="34"/>
@@ -17546,7 +17568,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="42">
-        <v>1980</v>
+        <v>2440</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="232"/>
@@ -17590,7 +17612,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="188">
-        <v>1798100</v>
+        <v>2722600</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="34"/>
@@ -17623,7 +17645,7 @@
       </c>
       <c r="B11" s="213">
         <f>B6-B8-B9-B10</f>
-        <v>20900</v>
+        <v>28700</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="232"/>
@@ -17658,10 +17680,10 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="212" t="s">
+      <c r="A12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="213">
+      <c r="B12" s="42">
         <v>4000000</v>
       </c>
       <c r="C12" s="40"/>
@@ -17674,7 +17696,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="33"/>
       <c r="H12" s="226"/>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -17738,7 +17760,7 @@
       </c>
       <c r="B14" s="42">
         <f>B5+B6-B9+B12-B13-B10</f>
-        <v>10020900</v>
+        <v>10028700</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="232" t="s">
@@ -17746,7 +17768,7 @@
       </c>
       <c r="E14" s="43">
         <f>E5+E6+E7+E10+E12+E9</f>
-        <v>10020900</v>
+        <v>10028700</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="189">
@@ -17809,13 +17831,13 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="22.5">
-      <c r="A16" s="277" t="s">
+      <c r="A16" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="278"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="279"/>
+      <c r="B16" s="279"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="280"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="226"/>
